--- a/gantt-chart_L (2).xlsx
+++ b/gantt-chart_L (2).xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heide\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manuel\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48EFB327-8239-4CB0-9035-BA8FA1D18033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="vertex42_id" hidden="1">"gantt-chart_L.xlsx"</definedName>
     <definedName name="vertex42_title" hidden="1">"Gantt Chart Template"</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -41,13 +40,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Vertex42</author>
     <author>Vertex42.com Templates</author>
   </authors>
   <commentList>
-    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -98,7 +97,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="C7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -122,7 +121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="D7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -146,7 +145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="E7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -269,7 +268,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="F7" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -293,7 +292,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="G7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -375,7 +374,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="H7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -399,7 +398,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="I7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -428,12 +427,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Vertex42</author>
   </authors>
   <commentList>
-    <comment ref="C16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="C16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1522,9 +1521,6 @@
     <t>Entwicklung</t>
   </si>
   <si>
-    <t>Datenimport Topix --&gt; shopware</t>
-  </si>
-  <si>
     <t>Testing</t>
   </si>
   <si>
@@ -1565,12 +1561,15 @@
   </si>
   <si>
     <t>Thenex</t>
+  </si>
+  <si>
+    <t>Datenexport Topix</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ \(dddd\)"/>
     <numFmt numFmtId="165" formatCode="ddd\ m/dd/yy"/>
@@ -2964,23 +2963,11 @@
     <xf numFmtId="0" fontId="42" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="42" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2989,18 +2976,30 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="45" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="167" fontId="45" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="45" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="45" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -3399,7 +3398,7 @@
         <xdr:cNvPr id="8236" name="Text Box 44" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C200000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002C200000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3463,7 +3462,7 @@
                   <a14:compatExt spid="_x0000_s8238"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E200000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002E200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3513,7 +3512,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3597,7 +3596,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3652,7 +3651,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3707,7 +3706,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4028,15 +4027,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:DR44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BN21" sqref="BN21"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4057,7 +4056,7 @@
   <sheetData>
     <row r="1" spans="1:122" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="93" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B1" s="46"/>
       <c r="C1" s="46"/>
@@ -4065,33 +4064,33 @@
       <c r="E1" s="46"/>
       <c r="F1" s="46"/>
       <c r="I1" s="98"/>
-      <c r="K1" s="174" t="s">
+      <c r="K1" s="170" t="s">
         <v>72</v>
       </c>
-      <c r="L1" s="174"/>
-      <c r="M1" s="174"/>
-      <c r="N1" s="174"/>
-      <c r="O1" s="174"/>
-      <c r="P1" s="174"/>
-      <c r="Q1" s="174"/>
-      <c r="R1" s="174"/>
-      <c r="S1" s="174"/>
-      <c r="T1" s="174"/>
-      <c r="U1" s="174"/>
-      <c r="V1" s="174"/>
-      <c r="W1" s="174"/>
-      <c r="X1" s="174"/>
-      <c r="Y1" s="174"/>
-      <c r="Z1" s="174"/>
-      <c r="AA1" s="174"/>
-      <c r="AB1" s="174"/>
-      <c r="AC1" s="174"/>
-      <c r="AD1" s="174"/>
-      <c r="AE1" s="174"/>
+      <c r="L1" s="170"/>
+      <c r="M1" s="170"/>
+      <c r="N1" s="170"/>
+      <c r="O1" s="170"/>
+      <c r="P1" s="170"/>
+      <c r="Q1" s="170"/>
+      <c r="R1" s="170"/>
+      <c r="S1" s="170"/>
+      <c r="T1" s="170"/>
+      <c r="U1" s="170"/>
+      <c r="V1" s="170"/>
+      <c r="W1" s="170"/>
+      <c r="X1" s="170"/>
+      <c r="Y1" s="170"/>
+      <c r="Z1" s="170"/>
+      <c r="AA1" s="170"/>
+      <c r="AB1" s="170"/>
+      <c r="AC1" s="170"/>
+      <c r="AD1" s="170"/>
+      <c r="AE1" s="170"/>
     </row>
     <row r="2" spans="1:122" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="51" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -4132,11 +4131,11 @@
       <c r="B4" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="176">
+      <c r="C4" s="175">
         <v>44474</v>
       </c>
-      <c r="D4" s="176"/>
-      <c r="E4" s="176"/>
+      <c r="D4" s="175"/>
+      <c r="E4" s="175"/>
       <c r="F4" s="79"/>
       <c r="G4" s="82" t="s">
         <v>69</v>
@@ -4146,340 +4145,340 @@
       </c>
       <c r="I4" s="80"/>
       <c r="J4" s="49"/>
-      <c r="K4" s="168" t="str">
+      <c r="K4" s="172" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="169"/>
-      <c r="M4" s="169"/>
-      <c r="N4" s="169"/>
-      <c r="O4" s="169"/>
-      <c r="P4" s="169"/>
-      <c r="Q4" s="170"/>
-      <c r="R4" s="168" t="str">
+      <c r="L4" s="173"/>
+      <c r="M4" s="173"/>
+      <c r="N4" s="173"/>
+      <c r="O4" s="173"/>
+      <c r="P4" s="173"/>
+      <c r="Q4" s="174"/>
+      <c r="R4" s="172" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="169"/>
-      <c r="T4" s="169"/>
-      <c r="U4" s="169"/>
-      <c r="V4" s="169"/>
-      <c r="W4" s="169"/>
-      <c r="X4" s="170"/>
-      <c r="Y4" s="168" t="str">
+      <c r="S4" s="173"/>
+      <c r="T4" s="173"/>
+      <c r="U4" s="173"/>
+      <c r="V4" s="173"/>
+      <c r="W4" s="173"/>
+      <c r="X4" s="174"/>
+      <c r="Y4" s="172" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="169"/>
-      <c r="AA4" s="169"/>
-      <c r="AB4" s="169"/>
-      <c r="AC4" s="169"/>
-      <c r="AD4" s="169"/>
-      <c r="AE4" s="170"/>
-      <c r="AF4" s="168" t="str">
+      <c r="Z4" s="173"/>
+      <c r="AA4" s="173"/>
+      <c r="AB4" s="173"/>
+      <c r="AC4" s="173"/>
+      <c r="AD4" s="173"/>
+      <c r="AE4" s="174"/>
+      <c r="AF4" s="172" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="169"/>
-      <c r="AH4" s="169"/>
-      <c r="AI4" s="169"/>
-      <c r="AJ4" s="169"/>
-      <c r="AK4" s="169"/>
-      <c r="AL4" s="170"/>
-      <c r="AM4" s="168" t="str">
+      <c r="AG4" s="173"/>
+      <c r="AH4" s="173"/>
+      <c r="AI4" s="173"/>
+      <c r="AJ4" s="173"/>
+      <c r="AK4" s="173"/>
+      <c r="AL4" s="174"/>
+      <c r="AM4" s="172" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="169"/>
-      <c r="AO4" s="169"/>
-      <c r="AP4" s="169"/>
-      <c r="AQ4" s="169"/>
-      <c r="AR4" s="169"/>
-      <c r="AS4" s="170"/>
-      <c r="AT4" s="168" t="str">
+      <c r="AN4" s="173"/>
+      <c r="AO4" s="173"/>
+      <c r="AP4" s="173"/>
+      <c r="AQ4" s="173"/>
+      <c r="AR4" s="173"/>
+      <c r="AS4" s="174"/>
+      <c r="AT4" s="172" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU4" s="169"/>
-      <c r="AV4" s="169"/>
-      <c r="AW4" s="169"/>
-      <c r="AX4" s="169"/>
-      <c r="AY4" s="169"/>
-      <c r="AZ4" s="170"/>
-      <c r="BA4" s="168" t="str">
+      <c r="AU4" s="173"/>
+      <c r="AV4" s="173"/>
+      <c r="AW4" s="173"/>
+      <c r="AX4" s="173"/>
+      <c r="AY4" s="173"/>
+      <c r="AZ4" s="174"/>
+      <c r="BA4" s="172" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB4" s="169"/>
-      <c r="BC4" s="169"/>
-      <c r="BD4" s="169"/>
-      <c r="BE4" s="169"/>
-      <c r="BF4" s="169"/>
-      <c r="BG4" s="170"/>
-      <c r="BH4" s="168" t="str">
+      <c r="BB4" s="173"/>
+      <c r="BC4" s="173"/>
+      <c r="BD4" s="173"/>
+      <c r="BE4" s="173"/>
+      <c r="BF4" s="173"/>
+      <c r="BG4" s="174"/>
+      <c r="BH4" s="172" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI4" s="169"/>
-      <c r="BJ4" s="169"/>
-      <c r="BK4" s="169"/>
-      <c r="BL4" s="169"/>
-      <c r="BM4" s="169"/>
-      <c r="BN4" s="170"/>
-      <c r="BO4" s="168" t="str">
+      <c r="BI4" s="173"/>
+      <c r="BJ4" s="173"/>
+      <c r="BK4" s="173"/>
+      <c r="BL4" s="173"/>
+      <c r="BM4" s="173"/>
+      <c r="BN4" s="174"/>
+      <c r="BO4" s="172" t="str">
         <f>"Week "&amp;(BO6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 9</v>
       </c>
-      <c r="BP4" s="169"/>
-      <c r="BQ4" s="169"/>
-      <c r="BR4" s="169"/>
-      <c r="BS4" s="169"/>
-      <c r="BT4" s="169"/>
-      <c r="BU4" s="170"/>
-      <c r="BV4" s="168" t="str">
+      <c r="BP4" s="173"/>
+      <c r="BQ4" s="173"/>
+      <c r="BR4" s="173"/>
+      <c r="BS4" s="173"/>
+      <c r="BT4" s="173"/>
+      <c r="BU4" s="174"/>
+      <c r="BV4" s="172" t="str">
         <f>"Week "&amp;(BV6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 10</v>
       </c>
-      <c r="BW4" s="169"/>
-      <c r="BX4" s="169"/>
-      <c r="BY4" s="169"/>
-      <c r="BZ4" s="169"/>
-      <c r="CA4" s="169"/>
-      <c r="CB4" s="170"/>
-      <c r="CC4" s="168" t="str">
+      <c r="BW4" s="173"/>
+      <c r="BX4" s="173"/>
+      <c r="BY4" s="173"/>
+      <c r="BZ4" s="173"/>
+      <c r="CA4" s="173"/>
+      <c r="CB4" s="174"/>
+      <c r="CC4" s="172" t="str">
         <f>"Week "&amp;(CC6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 11</v>
       </c>
-      <c r="CD4" s="169"/>
-      <c r="CE4" s="169"/>
-      <c r="CF4" s="169"/>
-      <c r="CG4" s="169"/>
-      <c r="CH4" s="169"/>
-      <c r="CI4" s="170"/>
-      <c r="CJ4" s="168" t="str">
+      <c r="CD4" s="173"/>
+      <c r="CE4" s="173"/>
+      <c r="CF4" s="173"/>
+      <c r="CG4" s="173"/>
+      <c r="CH4" s="173"/>
+      <c r="CI4" s="174"/>
+      <c r="CJ4" s="172" t="str">
         <f>"Week "&amp;(CJ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 12</v>
       </c>
-      <c r="CK4" s="169"/>
-      <c r="CL4" s="169"/>
-      <c r="CM4" s="169"/>
-      <c r="CN4" s="169"/>
-      <c r="CO4" s="169"/>
-      <c r="CP4" s="170"/>
-      <c r="CQ4" s="168" t="str">
+      <c r="CK4" s="173"/>
+      <c r="CL4" s="173"/>
+      <c r="CM4" s="173"/>
+      <c r="CN4" s="173"/>
+      <c r="CO4" s="173"/>
+      <c r="CP4" s="174"/>
+      <c r="CQ4" s="172" t="str">
         <f>"Week "&amp;(CQ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 13</v>
       </c>
-      <c r="CR4" s="169"/>
-      <c r="CS4" s="169"/>
-      <c r="CT4" s="169"/>
-      <c r="CU4" s="169"/>
-      <c r="CV4" s="169"/>
-      <c r="CW4" s="170"/>
-      <c r="CX4" s="168" t="str">
+      <c r="CR4" s="173"/>
+      <c r="CS4" s="173"/>
+      <c r="CT4" s="173"/>
+      <c r="CU4" s="173"/>
+      <c r="CV4" s="173"/>
+      <c r="CW4" s="174"/>
+      <c r="CX4" s="172" t="str">
         <f>"Week "&amp;(CX6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 14</v>
       </c>
-      <c r="CY4" s="169"/>
-      <c r="CZ4" s="169"/>
-      <c r="DA4" s="169"/>
-      <c r="DB4" s="169"/>
-      <c r="DC4" s="169"/>
-      <c r="DD4" s="170"/>
-      <c r="DE4" s="168" t="str">
+      <c r="CY4" s="173"/>
+      <c r="CZ4" s="173"/>
+      <c r="DA4" s="173"/>
+      <c r="DB4" s="173"/>
+      <c r="DC4" s="173"/>
+      <c r="DD4" s="174"/>
+      <c r="DE4" s="172" t="str">
         <f>"Week "&amp;(DE6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 15</v>
       </c>
-      <c r="DF4" s="169"/>
-      <c r="DG4" s="169"/>
-      <c r="DH4" s="169"/>
-      <c r="DI4" s="169"/>
-      <c r="DJ4" s="169"/>
-      <c r="DK4" s="170"/>
-      <c r="DL4" s="168" t="str">
+      <c r="DF4" s="173"/>
+      <c r="DG4" s="173"/>
+      <c r="DH4" s="173"/>
+      <c r="DI4" s="173"/>
+      <c r="DJ4" s="173"/>
+      <c r="DK4" s="174"/>
+      <c r="DL4" s="172" t="str">
         <f>"Week "&amp;(DL6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 16</v>
       </c>
-      <c r="DM4" s="169"/>
-      <c r="DN4" s="169"/>
-      <c r="DO4" s="169"/>
-      <c r="DP4" s="169"/>
-      <c r="DQ4" s="169"/>
-      <c r="DR4" s="170"/>
+      <c r="DM4" s="173"/>
+      <c r="DN4" s="173"/>
+      <c r="DO4" s="173"/>
+      <c r="DP4" s="173"/>
+      <c r="DQ4" s="173"/>
+      <c r="DR4" s="174"/>
     </row>
     <row r="5" spans="1:122" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="78"/>
       <c r="B5" s="82" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="175"/>
-      <c r="D5" s="175"/>
-      <c r="E5" s="175"/>
+      <c r="C5" s="171"/>
+      <c r="D5" s="171"/>
+      <c r="E5" s="171"/>
       <c r="F5" s="81"/>
       <c r="G5" s="81"/>
       <c r="H5" s="81"/>
       <c r="I5" s="81"/>
       <c r="J5" s="49"/>
-      <c r="K5" s="171">
+      <c r="K5" s="176">
         <f>K6</f>
         <v>44473</v>
       </c>
-      <c r="L5" s="172"/>
-      <c r="M5" s="172"/>
-      <c r="N5" s="172"/>
-      <c r="O5" s="172"/>
-      <c r="P5" s="172"/>
-      <c r="Q5" s="173"/>
-      <c r="R5" s="171">
+      <c r="L5" s="177"/>
+      <c r="M5" s="177"/>
+      <c r="N5" s="177"/>
+      <c r="O5" s="177"/>
+      <c r="P5" s="177"/>
+      <c r="Q5" s="178"/>
+      <c r="R5" s="176">
         <f>R6</f>
         <v>44480</v>
       </c>
-      <c r="S5" s="172"/>
-      <c r="T5" s="172"/>
-      <c r="U5" s="172"/>
-      <c r="V5" s="172"/>
-      <c r="W5" s="172"/>
-      <c r="X5" s="173"/>
-      <c r="Y5" s="171">
+      <c r="S5" s="177"/>
+      <c r="T5" s="177"/>
+      <c r="U5" s="177"/>
+      <c r="V5" s="177"/>
+      <c r="W5" s="177"/>
+      <c r="X5" s="178"/>
+      <c r="Y5" s="176">
         <f>Y6</f>
         <v>44487</v>
       </c>
-      <c r="Z5" s="172"/>
-      <c r="AA5" s="172"/>
-      <c r="AB5" s="172"/>
-      <c r="AC5" s="172"/>
-      <c r="AD5" s="172"/>
-      <c r="AE5" s="173"/>
-      <c r="AF5" s="171">
+      <c r="Z5" s="177"/>
+      <c r="AA5" s="177"/>
+      <c r="AB5" s="177"/>
+      <c r="AC5" s="177"/>
+      <c r="AD5" s="177"/>
+      <c r="AE5" s="178"/>
+      <c r="AF5" s="176">
         <f>AF6</f>
         <v>44494</v>
       </c>
-      <c r="AG5" s="172"/>
-      <c r="AH5" s="172"/>
-      <c r="AI5" s="172"/>
-      <c r="AJ5" s="172"/>
-      <c r="AK5" s="172"/>
-      <c r="AL5" s="173"/>
-      <c r="AM5" s="171">
+      <c r="AG5" s="177"/>
+      <c r="AH5" s="177"/>
+      <c r="AI5" s="177"/>
+      <c r="AJ5" s="177"/>
+      <c r="AK5" s="177"/>
+      <c r="AL5" s="178"/>
+      <c r="AM5" s="176">
         <f>AM6</f>
         <v>44501</v>
       </c>
-      <c r="AN5" s="172"/>
-      <c r="AO5" s="172"/>
-      <c r="AP5" s="172"/>
-      <c r="AQ5" s="172"/>
-      <c r="AR5" s="172"/>
-      <c r="AS5" s="173"/>
-      <c r="AT5" s="171">
+      <c r="AN5" s="177"/>
+      <c r="AO5" s="177"/>
+      <c r="AP5" s="177"/>
+      <c r="AQ5" s="177"/>
+      <c r="AR5" s="177"/>
+      <c r="AS5" s="178"/>
+      <c r="AT5" s="176">
         <f>AT6</f>
         <v>44508</v>
       </c>
-      <c r="AU5" s="172"/>
-      <c r="AV5" s="172"/>
-      <c r="AW5" s="172"/>
-      <c r="AX5" s="172"/>
-      <c r="AY5" s="172"/>
-      <c r="AZ5" s="173"/>
-      <c r="BA5" s="171">
+      <c r="AU5" s="177"/>
+      <c r="AV5" s="177"/>
+      <c r="AW5" s="177"/>
+      <c r="AX5" s="177"/>
+      <c r="AY5" s="177"/>
+      <c r="AZ5" s="178"/>
+      <c r="BA5" s="176">
         <f>BA6</f>
         <v>44515</v>
       </c>
-      <c r="BB5" s="172"/>
-      <c r="BC5" s="172"/>
-      <c r="BD5" s="172"/>
-      <c r="BE5" s="172"/>
-      <c r="BF5" s="172"/>
-      <c r="BG5" s="173"/>
-      <c r="BH5" s="171">
+      <c r="BB5" s="177"/>
+      <c r="BC5" s="177"/>
+      <c r="BD5" s="177"/>
+      <c r="BE5" s="177"/>
+      <c r="BF5" s="177"/>
+      <c r="BG5" s="178"/>
+      <c r="BH5" s="176">
         <f>BH6</f>
         <v>44522</v>
       </c>
-      <c r="BI5" s="172"/>
-      <c r="BJ5" s="172"/>
-      <c r="BK5" s="172"/>
-      <c r="BL5" s="172"/>
-      <c r="BM5" s="172"/>
-      <c r="BN5" s="173"/>
-      <c r="BO5" s="171">
+      <c r="BI5" s="177"/>
+      <c r="BJ5" s="177"/>
+      <c r="BK5" s="177"/>
+      <c r="BL5" s="177"/>
+      <c r="BM5" s="177"/>
+      <c r="BN5" s="178"/>
+      <c r="BO5" s="176">
         <f>BO6</f>
         <v>44529</v>
       </c>
-      <c r="BP5" s="172"/>
-      <c r="BQ5" s="172"/>
-      <c r="BR5" s="172"/>
-      <c r="BS5" s="172"/>
-      <c r="BT5" s="172"/>
-      <c r="BU5" s="173"/>
-      <c r="BV5" s="171">
+      <c r="BP5" s="177"/>
+      <c r="BQ5" s="177"/>
+      <c r="BR5" s="177"/>
+      <c r="BS5" s="177"/>
+      <c r="BT5" s="177"/>
+      <c r="BU5" s="178"/>
+      <c r="BV5" s="176">
         <f>BV6</f>
         <v>44536</v>
       </c>
-      <c r="BW5" s="172"/>
-      <c r="BX5" s="172"/>
-      <c r="BY5" s="172"/>
-      <c r="BZ5" s="172"/>
-      <c r="CA5" s="172"/>
-      <c r="CB5" s="173"/>
-      <c r="CC5" s="171">
+      <c r="BW5" s="177"/>
+      <c r="BX5" s="177"/>
+      <c r="BY5" s="177"/>
+      <c r="BZ5" s="177"/>
+      <c r="CA5" s="177"/>
+      <c r="CB5" s="178"/>
+      <c r="CC5" s="176">
         <f>CC6</f>
         <v>44543</v>
       </c>
-      <c r="CD5" s="172"/>
-      <c r="CE5" s="172"/>
-      <c r="CF5" s="172"/>
-      <c r="CG5" s="172"/>
-      <c r="CH5" s="172"/>
-      <c r="CI5" s="173"/>
-      <c r="CJ5" s="171">
+      <c r="CD5" s="177"/>
+      <c r="CE5" s="177"/>
+      <c r="CF5" s="177"/>
+      <c r="CG5" s="177"/>
+      <c r="CH5" s="177"/>
+      <c r="CI5" s="178"/>
+      <c r="CJ5" s="176">
         <f>CJ6</f>
         <v>44550</v>
       </c>
-      <c r="CK5" s="172"/>
-      <c r="CL5" s="172"/>
-      <c r="CM5" s="172"/>
-      <c r="CN5" s="172"/>
-      <c r="CO5" s="172"/>
-      <c r="CP5" s="173"/>
-      <c r="CQ5" s="171">
+      <c r="CK5" s="177"/>
+      <c r="CL5" s="177"/>
+      <c r="CM5" s="177"/>
+      <c r="CN5" s="177"/>
+      <c r="CO5" s="177"/>
+      <c r="CP5" s="178"/>
+      <c r="CQ5" s="176">
         <f>CQ6</f>
         <v>44557</v>
       </c>
-      <c r="CR5" s="172"/>
-      <c r="CS5" s="172"/>
-      <c r="CT5" s="172"/>
-      <c r="CU5" s="172"/>
-      <c r="CV5" s="172"/>
-      <c r="CW5" s="173"/>
-      <c r="CX5" s="171">
+      <c r="CR5" s="177"/>
+      <c r="CS5" s="177"/>
+      <c r="CT5" s="177"/>
+      <c r="CU5" s="177"/>
+      <c r="CV5" s="177"/>
+      <c r="CW5" s="178"/>
+      <c r="CX5" s="176">
         <f>CX6</f>
         <v>44564</v>
       </c>
-      <c r="CY5" s="172"/>
-      <c r="CZ5" s="172"/>
-      <c r="DA5" s="172"/>
-      <c r="DB5" s="172"/>
-      <c r="DC5" s="172"/>
-      <c r="DD5" s="173"/>
-      <c r="DE5" s="171">
+      <c r="CY5" s="177"/>
+      <c r="CZ5" s="177"/>
+      <c r="DA5" s="177"/>
+      <c r="DB5" s="177"/>
+      <c r="DC5" s="177"/>
+      <c r="DD5" s="178"/>
+      <c r="DE5" s="176">
         <f>DE6</f>
         <v>44571</v>
       </c>
-      <c r="DF5" s="172"/>
-      <c r="DG5" s="172"/>
-      <c r="DH5" s="172"/>
-      <c r="DI5" s="172"/>
-      <c r="DJ5" s="172"/>
-      <c r="DK5" s="173"/>
-      <c r="DL5" s="171">
+      <c r="DF5" s="177"/>
+      <c r="DG5" s="177"/>
+      <c r="DH5" s="177"/>
+      <c r="DI5" s="177"/>
+      <c r="DJ5" s="177"/>
+      <c r="DK5" s="178"/>
+      <c r="DL5" s="176">
         <f>DL6</f>
         <v>44578</v>
       </c>
-      <c r="DM5" s="172"/>
-      <c r="DN5" s="172"/>
-      <c r="DO5" s="172"/>
-      <c r="DP5" s="172"/>
-      <c r="DQ5" s="172"/>
-      <c r="DR5" s="173"/>
+      <c r="DM5" s="177"/>
+      <c r="DN5" s="177"/>
+      <c r="DO5" s="177"/>
+      <c r="DP5" s="177"/>
+      <c r="DQ5" s="177"/>
+      <c r="DR5" s="178"/>
     </row>
     <row r="6" spans="1:122" x14ac:dyDescent="0.2">
       <c r="A6" s="48"/>
@@ -5507,7 +5506,7 @@
         <v>131</v>
       </c>
       <c r="C9" s="54" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D9" s="95"/>
       <c r="E9" s="73">
@@ -5618,7 +5617,7 @@
         <v>132</v>
       </c>
       <c r="C10" s="54" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D10" s="95"/>
       <c r="E10" s="73">
@@ -5729,7 +5728,7 @@
         <v>133</v>
       </c>
       <c r="C11" s="54" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D11" s="95"/>
       <c r="E11" s="73">
@@ -5744,7 +5743,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="56">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I11" s="57">
         <f t="shared" si="65"/>
@@ -5840,7 +5839,7 @@
         <v>134</v>
       </c>
       <c r="C12" s="54" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D12" s="95"/>
       <c r="E12" s="73">
@@ -5951,7 +5950,7 @@
         <v>135</v>
       </c>
       <c r="C13" s="54" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D13" s="95"/>
       <c r="E13" s="73">
@@ -5966,7 +5965,7 @@
         <v>2</v>
       </c>
       <c r="H13" s="56">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I13" s="57">
         <v>9</v>
@@ -5993,61 +5992,61 @@
       <c r="AC13" s="76"/>
       <c r="AD13" s="76"/>
       <c r="AE13" s="76"/>
-      <c r="AF13" s="178"/>
-      <c r="AG13" s="178"/>
-      <c r="AH13" s="178"/>
-      <c r="AI13" s="178"/>
-      <c r="AJ13" s="178"/>
-      <c r="AK13" s="178"/>
-      <c r="AL13" s="178"/>
-      <c r="AM13" s="178"/>
-      <c r="AN13" s="178"/>
-      <c r="AO13" s="178"/>
-      <c r="AP13" s="178"/>
-      <c r="AQ13" s="178"/>
-      <c r="AR13" s="178"/>
-      <c r="AS13" s="178"/>
-      <c r="AT13" s="178"/>
-      <c r="AU13" s="178"/>
-      <c r="AV13" s="178"/>
-      <c r="AW13" s="178"/>
-      <c r="AX13" s="178"/>
-      <c r="AY13" s="178"/>
-      <c r="AZ13" s="178"/>
-      <c r="BA13" s="178"/>
-      <c r="BB13" s="178"/>
-      <c r="BC13" s="178"/>
-      <c r="BD13" s="178"/>
-      <c r="BE13" s="178"/>
-      <c r="BF13" s="178"/>
-      <c r="BG13" s="178"/>
-      <c r="BH13" s="178"/>
-      <c r="BI13" s="178"/>
-      <c r="BJ13" s="178"/>
-      <c r="BK13" s="178"/>
-      <c r="BL13" s="178"/>
-      <c r="BM13" s="178"/>
-      <c r="BN13" s="178"/>
-      <c r="BO13" s="179"/>
-      <c r="BP13" s="179"/>
-      <c r="BQ13" s="179"/>
-      <c r="BR13" s="179"/>
-      <c r="BS13" s="179"/>
-      <c r="BT13" s="179"/>
-      <c r="BU13" s="179"/>
-      <c r="BV13" s="179"/>
-      <c r="BW13" s="179"/>
-      <c r="BX13" s="179"/>
-      <c r="BY13" s="179"/>
-      <c r="BZ13" s="179"/>
-      <c r="CA13" s="179"/>
-      <c r="CB13" s="179"/>
-      <c r="CC13" s="179"/>
-      <c r="CD13" s="179"/>
-      <c r="CE13" s="179"/>
-      <c r="CF13" s="179"/>
-      <c r="CG13" s="179"/>
-      <c r="CH13" s="179"/>
+      <c r="AF13" s="168"/>
+      <c r="AG13" s="168"/>
+      <c r="AH13" s="168"/>
+      <c r="AI13" s="168"/>
+      <c r="AJ13" s="168"/>
+      <c r="AK13" s="168"/>
+      <c r="AL13" s="168"/>
+      <c r="AM13" s="168"/>
+      <c r="AN13" s="168"/>
+      <c r="AO13" s="168"/>
+      <c r="AP13" s="168"/>
+      <c r="AQ13" s="168"/>
+      <c r="AR13" s="168"/>
+      <c r="AS13" s="168"/>
+      <c r="AT13" s="168"/>
+      <c r="AU13" s="168"/>
+      <c r="AV13" s="168"/>
+      <c r="AW13" s="168"/>
+      <c r="AX13" s="168"/>
+      <c r="AY13" s="168"/>
+      <c r="AZ13" s="168"/>
+      <c r="BA13" s="168"/>
+      <c r="BB13" s="168"/>
+      <c r="BC13" s="168"/>
+      <c r="BD13" s="168"/>
+      <c r="BE13" s="168"/>
+      <c r="BF13" s="168"/>
+      <c r="BG13" s="168"/>
+      <c r="BH13" s="168"/>
+      <c r="BI13" s="168"/>
+      <c r="BJ13" s="168"/>
+      <c r="BK13" s="168"/>
+      <c r="BL13" s="168"/>
+      <c r="BM13" s="168"/>
+      <c r="BN13" s="168"/>
+      <c r="BO13" s="169"/>
+      <c r="BP13" s="169"/>
+      <c r="BQ13" s="169"/>
+      <c r="BR13" s="169"/>
+      <c r="BS13" s="169"/>
+      <c r="BT13" s="169"/>
+      <c r="BU13" s="169"/>
+      <c r="BV13" s="169"/>
+      <c r="BW13" s="169"/>
+      <c r="BX13" s="169"/>
+      <c r="BY13" s="169"/>
+      <c r="BZ13" s="169"/>
+      <c r="CA13" s="169"/>
+      <c r="CB13" s="169"/>
+      <c r="CC13" s="169"/>
+      <c r="CD13" s="169"/>
+      <c r="CE13" s="169"/>
+      <c r="CF13" s="169"/>
+      <c r="CG13" s="169"/>
+      <c r="CH13" s="169"/>
       <c r="CI13" s="76"/>
       <c r="CJ13" s="76"/>
       <c r="CK13" s="76"/>
@@ -6081,7 +6080,7 @@
         <v>136</v>
       </c>
       <c r="C14" s="54" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D14" s="95"/>
       <c r="E14" s="73">
@@ -6096,7 +6095,7 @@
         <v>3</v>
       </c>
       <c r="H14" s="56">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I14" s="57">
         <f t="shared" si="65"/>
@@ -6142,43 +6141,43 @@
       <c r="AU14" s="76"/>
       <c r="AV14" s="76"/>
       <c r="AW14" s="76"/>
-      <c r="AX14" s="178"/>
-      <c r="AY14" s="178"/>
-      <c r="AZ14" s="178"/>
-      <c r="BA14" s="178"/>
-      <c r="BB14" s="178"/>
-      <c r="BC14" s="178"/>
-      <c r="BD14" s="178"/>
-      <c r="BE14" s="178"/>
-      <c r="BF14" s="178"/>
-      <c r="BG14" s="178"/>
-      <c r="BH14" s="178"/>
-      <c r="BI14" s="178"/>
-      <c r="BJ14" s="178"/>
-      <c r="BK14" s="178"/>
-      <c r="BL14" s="178"/>
-      <c r="BM14" s="178"/>
-      <c r="BN14" s="178"/>
-      <c r="BO14" s="179"/>
-      <c r="BP14" s="179"/>
-      <c r="BQ14" s="179"/>
-      <c r="BR14" s="179"/>
-      <c r="BS14" s="179"/>
-      <c r="BT14" s="179"/>
-      <c r="BU14" s="179"/>
-      <c r="BV14" s="179"/>
-      <c r="BW14" s="179"/>
-      <c r="BX14" s="179"/>
-      <c r="BY14" s="179"/>
-      <c r="BZ14" s="179"/>
-      <c r="CA14" s="179"/>
-      <c r="CB14" s="179"/>
-      <c r="CC14" s="179"/>
-      <c r="CD14" s="179"/>
-      <c r="CE14" s="179"/>
-      <c r="CF14" s="179"/>
-      <c r="CG14" s="179"/>
-      <c r="CH14" s="179"/>
+      <c r="AX14" s="168"/>
+      <c r="AY14" s="168"/>
+      <c r="AZ14" s="168"/>
+      <c r="BA14" s="168"/>
+      <c r="BB14" s="168"/>
+      <c r="BC14" s="168"/>
+      <c r="BD14" s="168"/>
+      <c r="BE14" s="168"/>
+      <c r="BF14" s="168"/>
+      <c r="BG14" s="168"/>
+      <c r="BH14" s="168"/>
+      <c r="BI14" s="168"/>
+      <c r="BJ14" s="168"/>
+      <c r="BK14" s="168"/>
+      <c r="BL14" s="168"/>
+      <c r="BM14" s="168"/>
+      <c r="BN14" s="168"/>
+      <c r="BO14" s="169"/>
+      <c r="BP14" s="169"/>
+      <c r="BQ14" s="169"/>
+      <c r="BR14" s="169"/>
+      <c r="BS14" s="169"/>
+      <c r="BT14" s="169"/>
+      <c r="BU14" s="169"/>
+      <c r="BV14" s="169"/>
+      <c r="BW14" s="169"/>
+      <c r="BX14" s="169"/>
+      <c r="BY14" s="169"/>
+      <c r="BZ14" s="169"/>
+      <c r="CA14" s="169"/>
+      <c r="CB14" s="169"/>
+      <c r="CC14" s="169"/>
+      <c r="CD14" s="169"/>
+      <c r="CE14" s="169"/>
+      <c r="CF14" s="169"/>
+      <c r="CG14" s="169"/>
+      <c r="CH14" s="169"/>
       <c r="CI14" s="76"/>
       <c r="CJ14" s="76"/>
       <c r="CK14" s="76"/>
@@ -6209,10 +6208,10 @@
         <v>1.5</v>
       </c>
       <c r="B15" s="94" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="C15" s="54" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D15" s="95"/>
       <c r="E15" s="73">
@@ -6226,7 +6225,7 @@
         <v>5</v>
       </c>
       <c r="H15" s="56">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="I15" s="57">
         <f t="shared" si="65"/>
@@ -6319,10 +6318,10 @@
         <v>1.6</v>
       </c>
       <c r="B16" s="94" t="s">
+        <v>147</v>
+      </c>
+      <c r="C16" s="54" t="s">
         <v>148</v>
-      </c>
-      <c r="C16" s="54" t="s">
-        <v>149</v>
       </c>
       <c r="D16" s="95"/>
       <c r="E16" s="73">
@@ -6444,10 +6443,10 @@
         <v>1.7</v>
       </c>
       <c r="B17" s="94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C17" s="54" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D17" s="95"/>
       <c r="E17" s="73">
@@ -6462,7 +6461,7 @@
         <v>7</v>
       </c>
       <c r="H17" s="56">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="I17" s="57">
         <f t="shared" si="65"/>
@@ -6484,103 +6483,103 @@
       <c r="W17" s="76"/>
       <c r="X17" s="76"/>
       <c r="Y17" s="76"/>
-      <c r="Z17" s="178"/>
-      <c r="AA17" s="178"/>
-      <c r="AB17" s="178"/>
-      <c r="AC17" s="178"/>
-      <c r="AD17" s="178"/>
-      <c r="AE17" s="178"/>
-      <c r="AF17" s="178"/>
-      <c r="AG17" s="178"/>
-      <c r="AH17" s="178"/>
-      <c r="AI17" s="178"/>
-      <c r="AJ17" s="178"/>
-      <c r="AK17" s="178"/>
-      <c r="AL17" s="178"/>
-      <c r="AM17" s="178"/>
-      <c r="AN17" s="178"/>
-      <c r="AO17" s="178"/>
-      <c r="AP17" s="178"/>
-      <c r="AQ17" s="178"/>
-      <c r="AR17" s="178"/>
-      <c r="AS17" s="178"/>
-      <c r="AT17" s="178"/>
-      <c r="AU17" s="178"/>
-      <c r="AV17" s="178"/>
-      <c r="AW17" s="178"/>
-      <c r="AX17" s="178"/>
-      <c r="AY17" s="178"/>
-      <c r="AZ17" s="178"/>
-      <c r="BA17" s="178"/>
-      <c r="BB17" s="178"/>
-      <c r="BC17" s="178"/>
-      <c r="BD17" s="178"/>
-      <c r="BE17" s="178"/>
-      <c r="BF17" s="178"/>
-      <c r="BG17" s="178"/>
-      <c r="BH17" s="178"/>
-      <c r="BI17" s="178"/>
-      <c r="BJ17" s="178"/>
-      <c r="BK17" s="178"/>
-      <c r="BL17" s="178"/>
-      <c r="BM17" s="178"/>
-      <c r="BN17" s="178"/>
-      <c r="BO17" s="179"/>
-      <c r="BP17" s="179"/>
-      <c r="BQ17" s="179"/>
-      <c r="BR17" s="179"/>
-      <c r="BS17" s="179"/>
-      <c r="BT17" s="179"/>
-      <c r="BU17" s="179"/>
-      <c r="BV17" s="179"/>
-      <c r="BW17" s="179"/>
-      <c r="BX17" s="179"/>
-      <c r="BY17" s="179"/>
-      <c r="BZ17" s="179"/>
-      <c r="CA17" s="179"/>
-      <c r="CB17" s="179"/>
-      <c r="CC17" s="179"/>
-      <c r="CD17" s="179"/>
-      <c r="CE17" s="179"/>
-      <c r="CF17" s="179"/>
-      <c r="CG17" s="179"/>
-      <c r="CH17" s="179"/>
-      <c r="CI17" s="178"/>
-      <c r="CJ17" s="178"/>
-      <c r="CK17" s="178"/>
-      <c r="CL17" s="178"/>
-      <c r="CM17" s="178"/>
-      <c r="CN17" s="178"/>
-      <c r="CO17" s="178"/>
-      <c r="CP17" s="178"/>
-      <c r="CQ17" s="178"/>
-      <c r="CR17" s="178"/>
-      <c r="CS17" s="178"/>
-      <c r="CT17" s="178"/>
-      <c r="CU17" s="178"/>
-      <c r="CV17" s="178"/>
-      <c r="CW17" s="178"/>
-      <c r="CX17" s="178"/>
-      <c r="CY17" s="178"/>
-      <c r="CZ17" s="178"/>
-      <c r="DA17" s="178"/>
-      <c r="DB17" s="178"/>
-      <c r="DC17" s="178"/>
-      <c r="DD17" s="178"/>
-      <c r="DE17" s="178"/>
-      <c r="DF17" s="179"/>
-      <c r="DG17" s="179"/>
-      <c r="DH17" s="179"/>
-      <c r="DI17" s="179"/>
-      <c r="DJ17" s="179"/>
-      <c r="DK17" s="179"/>
-      <c r="DL17" s="179"/>
-      <c r="DM17" s="179"/>
-      <c r="DN17" s="179"/>
-      <c r="DO17" s="179"/>
-      <c r="DP17" s="179"/>
-      <c r="DQ17" s="179"/>
-      <c r="DR17" s="179"/>
+      <c r="Z17" s="168"/>
+      <c r="AA17" s="168"/>
+      <c r="AB17" s="168"/>
+      <c r="AC17" s="168"/>
+      <c r="AD17" s="168"/>
+      <c r="AE17" s="168"/>
+      <c r="AF17" s="168"/>
+      <c r="AG17" s="168"/>
+      <c r="AH17" s="168"/>
+      <c r="AI17" s="168"/>
+      <c r="AJ17" s="168"/>
+      <c r="AK17" s="168"/>
+      <c r="AL17" s="168"/>
+      <c r="AM17" s="168"/>
+      <c r="AN17" s="168"/>
+      <c r="AO17" s="168"/>
+      <c r="AP17" s="168"/>
+      <c r="AQ17" s="168"/>
+      <c r="AR17" s="168"/>
+      <c r="AS17" s="168"/>
+      <c r="AT17" s="168"/>
+      <c r="AU17" s="168"/>
+      <c r="AV17" s="168"/>
+      <c r="AW17" s="168"/>
+      <c r="AX17" s="168"/>
+      <c r="AY17" s="168"/>
+      <c r="AZ17" s="168"/>
+      <c r="BA17" s="168"/>
+      <c r="BB17" s="168"/>
+      <c r="BC17" s="168"/>
+      <c r="BD17" s="168"/>
+      <c r="BE17" s="168"/>
+      <c r="BF17" s="168"/>
+      <c r="BG17" s="168"/>
+      <c r="BH17" s="168"/>
+      <c r="BI17" s="168"/>
+      <c r="BJ17" s="168"/>
+      <c r="BK17" s="168"/>
+      <c r="BL17" s="168"/>
+      <c r="BM17" s="168"/>
+      <c r="BN17" s="168"/>
+      <c r="BO17" s="169"/>
+      <c r="BP17" s="169"/>
+      <c r="BQ17" s="169"/>
+      <c r="BR17" s="169"/>
+      <c r="BS17" s="169"/>
+      <c r="BT17" s="169"/>
+      <c r="BU17" s="169"/>
+      <c r="BV17" s="169"/>
+      <c r="BW17" s="169"/>
+      <c r="BX17" s="169"/>
+      <c r="BY17" s="169"/>
+      <c r="BZ17" s="169"/>
+      <c r="CA17" s="169"/>
+      <c r="CB17" s="169"/>
+      <c r="CC17" s="169"/>
+      <c r="CD17" s="169"/>
+      <c r="CE17" s="169"/>
+      <c r="CF17" s="169"/>
+      <c r="CG17" s="169"/>
+      <c r="CH17" s="169"/>
+      <c r="CI17" s="168"/>
+      <c r="CJ17" s="168"/>
+      <c r="CK17" s="168"/>
+      <c r="CL17" s="168"/>
+      <c r="CM17" s="168"/>
+      <c r="CN17" s="168"/>
+      <c r="CO17" s="168"/>
+      <c r="CP17" s="168"/>
+      <c r="CQ17" s="168"/>
+      <c r="CR17" s="168"/>
+      <c r="CS17" s="168"/>
+      <c r="CT17" s="168"/>
+      <c r="CU17" s="168"/>
+      <c r="CV17" s="168"/>
+      <c r="CW17" s="168"/>
+      <c r="CX17" s="168"/>
+      <c r="CY17" s="168"/>
+      <c r="CZ17" s="168"/>
+      <c r="DA17" s="168"/>
+      <c r="DB17" s="168"/>
+      <c r="DC17" s="168"/>
+      <c r="DD17" s="168"/>
+      <c r="DE17" s="168"/>
+      <c r="DF17" s="169"/>
+      <c r="DG17" s="169"/>
+      <c r="DH17" s="169"/>
+      <c r="DI17" s="169"/>
+      <c r="DJ17" s="169"/>
+      <c r="DK17" s="169"/>
+      <c r="DL17" s="169"/>
+      <c r="DM17" s="169"/>
+      <c r="DN17" s="169"/>
+      <c r="DO17" s="169"/>
+      <c r="DP17" s="169"/>
+      <c r="DQ17" s="169"/>
+      <c r="DR17" s="169"/>
     </row>
     <row r="18" spans="1:122" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="53" t="str">
@@ -6588,10 +6587,10 @@
         <v>1.8</v>
       </c>
       <c r="B18" s="130" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C18" s="58" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E18" s="131"/>
       <c r="G18" s="131"/>
@@ -6603,10 +6602,10 @@
         <v>1.9</v>
       </c>
       <c r="B19" s="94" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C19" s="54" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D19" s="95"/>
       <c r="E19" s="73"/>
@@ -8298,15 +8297,20 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="35">
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
+    <mergeCell ref="DL4:DR4"/>
+    <mergeCell ref="DL5:DR5"/>
+    <mergeCell ref="CQ4:CW4"/>
+    <mergeCell ref="CQ5:CW5"/>
+    <mergeCell ref="CX4:DD4"/>
+    <mergeCell ref="CX5:DD5"/>
+    <mergeCell ref="DE4:DK4"/>
+    <mergeCell ref="DE5:DK5"/>
+    <mergeCell ref="BV4:CB4"/>
+    <mergeCell ref="BV5:CB5"/>
+    <mergeCell ref="CC4:CI4"/>
+    <mergeCell ref="CC5:CI5"/>
+    <mergeCell ref="CJ4:CP4"/>
+    <mergeCell ref="CJ5:CP5"/>
     <mergeCell ref="BO4:BU4"/>
     <mergeCell ref="BO5:BU5"/>
     <mergeCell ref="AF4:AL4"/>
@@ -8319,20 +8323,15 @@
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BA5:BG5"/>
-    <mergeCell ref="BV4:CB4"/>
-    <mergeCell ref="BV5:CB5"/>
-    <mergeCell ref="CC4:CI4"/>
-    <mergeCell ref="CC5:CI5"/>
-    <mergeCell ref="CJ4:CP4"/>
-    <mergeCell ref="CJ5:CP5"/>
-    <mergeCell ref="DL4:DR4"/>
-    <mergeCell ref="DL5:DR5"/>
-    <mergeCell ref="CQ4:CW4"/>
-    <mergeCell ref="CQ5:CW5"/>
-    <mergeCell ref="CX4:DD4"/>
-    <mergeCell ref="CX5:DD5"/>
-    <mergeCell ref="DE4:DK4"/>
-    <mergeCell ref="DE5:DK5"/>
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H8:H43">
@@ -8461,16 +8460,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Enter the week number to display first in the Gantt Chart. The weeks are numbered starting from the week containing the Project Start Date." sqref="H4" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Enter the week number to display first in the Gantt Chart. The weeks are numbered starting from the week containing the Project Start Date." sqref="H4"/>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="K1:AE1" r:id="rId1" display="Gantt Chart Template © 2006-2018 by Vertex42.com." xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="K1:AE1" r:id="rId1" display="Gantt Chart Template © 2006-2018 by Vertex42.com."/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.25"/>
   <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="H9 G13:H13 G12 G16 G14:H14 G15 G11 G10" unlockedFormula="1"/>
+    <ignoredError sqref="H9 G13 G12 G16 G14 G15 G11 G10" unlockedFormula="1"/>
   </ignoredErrors>
   <drawing r:id="rId3"/>
   <legacyDrawing r:id="rId4"/>
@@ -8527,7 +8526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -8712,9 +8711,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B46" r:id="rId2" tooltip="Go to Vertex42.com" display="https://www.vertex42.com/Links/go.php?urlid=GanttChartPro" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="C13" r:id="rId3" display="https://www.vertex42.com/blog/business/pm/new-gantt-chart-for-excel-online.html" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="C7" r:id="rId1"/>
+    <hyperlink ref="B46" r:id="rId2" tooltip="Go to Vertex42.com" display="https://www.vertex42.com/Links/go.php?urlid=GanttChartPro"/>
+    <hyperlink ref="C13" r:id="rId3" display="https://www.vertex42.com/blog/business/pm/new-gantt-chart-for-excel-online.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="93" orientation="portrait" r:id="rId4"/>
@@ -8723,7 +8722,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:C94"/>
   <sheetViews>
@@ -8786,10 +8785,10 @@
     </row>
     <row r="12" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13" s="177" t="s">
+      <c r="A13" s="179" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="177"/>
+      <c r="B13" s="179"/>
     </row>
     <row r="14" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:3" s="100" customFormat="1" ht="18" x14ac:dyDescent="0.2">
@@ -8851,10 +8850,10 @@
       <c r="B23" s="10"/>
     </row>
     <row r="24" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A24" s="177" t="s">
+      <c r="A24" s="179" t="s">
         <v>80</v>
       </c>
-      <c r="B24" s="177"/>
+      <c r="B24" s="179"/>
     </row>
     <row r="25" spans="1:3" s="8" customFormat="1" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A25" s="110"/>
@@ -8927,10 +8926,10 @@
       <c r="B37" s="10"/>
     </row>
     <row r="38" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A38" s="177" t="s">
+      <c r="A38" s="179" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="177"/>
+      <c r="B38" s="179"/>
     </row>
     <row r="39" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B39" s="107" t="s">
@@ -8967,10 +8966,10 @@
       <c r="B48" s="11"/>
     </row>
     <row r="49" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A49" s="177" t="s">
+      <c r="A49" s="179" t="s">
         <v>6</v>
       </c>
-      <c r="B49" s="177"/>
+      <c r="B49" s="179"/>
     </row>
     <row r="50" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B50" s="107" t="s">
@@ -9068,10 +9067,10 @@
       <c r="B64" s="12"/>
     </row>
     <row r="65" spans="1:2" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A65" s="177" t="s">
+      <c r="A65" s="179" t="s">
         <v>8</v>
       </c>
-      <c r="B65" s="177"/>
+      <c r="B65" s="179"/>
     </row>
     <row r="66" spans="1:2" s="20" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B66" s="107" t="s">
@@ -9082,10 +9081,10 @@
       <c r="B67" s="13"/>
     </row>
     <row r="68" spans="1:2" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A68" s="177" t="s">
+      <c r="A68" s="179" t="s">
         <v>4</v>
       </c>
-      <c r="B68" s="177"/>
+      <c r="B68" s="179"/>
     </row>
     <row r="69" spans="1:2" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="122" t="s">
@@ -9249,9 +9248,9 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="B36" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="B9" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="B36" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.25" bottom="0.25" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -9262,7 +9261,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -9447,8 +9446,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="B19" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B19" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
